--- a/Person/郑雨露/userstory.xlsx
+++ b/Person/郑雨露/userstory.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\大三\软件工程\作业\software-process-homework\Person\郑雨露\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C06410-18B5-4062-877F-EB4F59ECB109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0EF5ED-AF96-48B5-8B1A-0BC63AFCD974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="1896" windowWidth="17856" windowHeight="8964" xr2:uid="{F9F5FADB-B664-4690-BB60-30F58D865BE9}"/>
+    <workbookView xWindow="2748" yWindow="924" windowWidth="20352" windowHeight="9780" xr2:uid="{F9F5FADB-B664-4690-BB60-30F58D865BE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="userstroy" sheetId="1" r:id="rId1"/>
+    <sheet name="project vision" sheetId="2" r:id="rId2"/>
+    <sheet name="user Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>引用编号</t>
   </si>
@@ -165,6 +167,113 @@
   </si>
   <si>
     <t>作为一个用户，我希望当忘记密码时，能够找回密码，从而成功登陆。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT VISION</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Name :</t>
+  </si>
+  <si>
+    <t>Vision:</t>
+  </si>
+  <si>
+    <t>analysis of profit</t>
+  </si>
+  <si>
+    <t>User Model</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>吾宠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造石家庄记录宠物生活的平台，并在日后扩展到其他城市。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物相关用品广告</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>做第三方宠物活动的宣传平台</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>养宠达人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握较多的养宠技巧，有过很多的养宠经验可以和大家分享。</t>
+  </si>
+  <si>
+    <t>普通铲屎官</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手铲屎官</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>有过一点养宠经验，但是不是很精通的大多数的养宠人士。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关爱动物的人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前没有养宠经验，刚刚养宠物的新手小白。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不养宠物，但是单纯的喜欢和关爱小动物的人。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关宠物机构</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关宠物机构。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信登录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个用户，我希望能够通过微信登录，以便于更快捷的登录系统，而省去注册环节。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机快速注册</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个用户，我希望能够通过手机号快速注册。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +288,7 @@
     <numFmt numFmtId="179" formatCode="0.00;\-0.00;;@\ "/>
     <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +346,70 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +458,31 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -505,6 +699,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,7 +859,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,6 +935,137 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,17 +1396,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FDAA4C-2230-4149-856E-6651920B5479}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.15">
@@ -1086,7 +1548,7 @@
     </row>
     <row r="4" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -1098,10 +1560,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>18</v>
@@ -1110,24 +1572,26 @@
         <v>19</v>
       </c>
       <c r="I4" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="20">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="13"/>
       <c r="M4" s="14">
-        <v>3</v>
-      </c>
-      <c r="N4" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -1139,10 +1603,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>18</v>
@@ -1151,26 +1615,24 @@
         <v>19</v>
       </c>
       <c r="I5" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="20">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="13"/>
       <c r="M5" s="14">
-        <v>2</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N5" s="11"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -1182,10 +1644,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>18</v>
@@ -1194,10 +1656,10 @@
         <v>19</v>
       </c>
       <c r="I6" s="23">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="20">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="13"/>
@@ -1213,7 +1675,7 @@
     </row>
     <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -1221,42 +1683,42 @@
       <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="57" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="57" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="20">
+        <v>2</v>
+      </c>
+      <c r="J7" s="79">
         <v>90</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14">
+      <c r="K7" s="83"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47">
         <v>2</v>
       </c>
       <c r="N7" s="11">
         <v>0</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -1268,10 +1730,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>18</v>
@@ -1283,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="21">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="9"/>
@@ -1299,7 +1761,7 @@
     </row>
     <row r="9" spans="1:17" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -1307,38 +1769,38 @@
       <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="58" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="23">
         <v>2</v>
       </c>
-      <c r="J9" s="21">
-        <v>88</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10">
+      <c r="J9" s="78">
+        <v>85</v>
+      </c>
+      <c r="K9" s="84"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51">
         <v>2</v>
       </c>
       <c r="N9" s="11">
         <v>0</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="16"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
     </row>
     <row r="10" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
@@ -1424,7 +1886,406 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="16"/>
     </row>
+    <row r="12" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49">
+        <v>11</v>
+      </c>
+      <c r="B12" s="49">
+        <v>1</v>
+      </c>
+      <c r="C12" s="58">
+        <v>1</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="80">
+        <v>3</v>
+      </c>
+      <c r="J12" s="79">
+        <v>78</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47">
+        <v>3</v>
+      </c>
+      <c r="N12" s="48"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="53"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="49">
+        <v>12</v>
+      </c>
+      <c r="B13" s="49">
+        <v>1</v>
+      </c>
+      <c r="C13" s="58">
+        <v>1</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="80">
+        <v>3</v>
+      </c>
+      <c r="J13" s="79">
+        <v>78</v>
+      </c>
+      <c r="K13" s="83"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47">
+        <v>3</v>
+      </c>
+      <c r="N13" s="48"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="53"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:Q11">
+    <sortCondition descending="1" ref="J1"/>
+  </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44F3FC4-26C2-478B-91D5-DCB7914676C3}">
+  <dimension ref="A2:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.15">
+      <c r="A2" s="42"/>
+      <c r="B2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA13DBB2-6BA8-47FB-BB8F-F49E4831C749}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="67.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="59"/>
+    </row>
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+      <c r="A5" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+    </row>
+    <row r="9" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="73"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="67"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="73"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="67"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="73"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="67"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="73"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="67"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="73"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="67"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Person/郑雨露/userstory.xlsx
+++ b/Person/郑雨露/userstory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\大三\软件工程\作业\software-process-homework\Person\郑雨露\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0EF5ED-AF96-48B5-8B1A-0BC63AFCD974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDEF0D1-0E07-4A74-A0A8-26D86DACD470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="924" windowWidth="20352" windowHeight="9780" xr2:uid="{F9F5FADB-B664-4690-BB60-30F58D865BE9}"/>
+    <workbookView xWindow="2136" yWindow="396" windowWidth="20352" windowHeight="9780" xr2:uid="{F9F5FADB-B664-4690-BB60-30F58D865BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="userstroy" sheetId="1" r:id="rId1"/>
@@ -942,44 +942,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,6 +1041,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Background" xfId="2" xr:uid="{9D2B31B0-B23B-4B58-9F9B-B59CFADC00A8}"/>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FDAA4C-2230-4149-856E-6651920B5479}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="21">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="9"/>
@@ -1562,7 +1562,7 @@
       <c r="E4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -1605,7 +1605,7 @@
       <c r="E5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="52" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="18" t="s">
@@ -1683,7 +1683,7 @@
       <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="47" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -1692,29 +1692,29 @@
       <c r="F7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="23">
         <v>2</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="69">
         <v>90</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47">
+      <c r="K7" s="73"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37">
         <v>2</v>
       </c>
       <c r="N7" s="11">
         <v>0</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="53"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
@@ -1769,7 +1769,7 @@
       <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="48" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="24" t="s">
@@ -1778,29 +1778,29 @@
       <c r="F9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="48" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="23">
         <v>2</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="68">
         <v>85</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51">
+      <c r="K9" s="74"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41">
         <v>2</v>
       </c>
       <c r="N9" s="11">
         <v>0</v>
       </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
@@ -1887,86 +1887,86 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49">
+      <c r="A12" s="39">
         <v>11</v>
       </c>
-      <c r="B12" s="49">
-        <v>1</v>
-      </c>
-      <c r="C12" s="58">
-        <v>1</v>
-      </c>
-      <c r="D12" s="58" t="s">
+      <c r="B12" s="39">
+        <v>1</v>
+      </c>
+      <c r="C12" s="48">
+        <v>1</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="70">
         <v>3</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="69">
         <v>78</v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47">
+      <c r="K12" s="73"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37">
         <v>3</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="53"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="1:17" ht="38.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49">
+      <c r="A13" s="39">
         <v>12</v>
       </c>
-      <c r="B13" s="49">
-        <v>1</v>
-      </c>
-      <c r="C13" s="58">
-        <v>1</v>
-      </c>
-      <c r="D13" s="58" t="s">
+      <c r="B13" s="39">
+        <v>1</v>
+      </c>
+      <c r="C13" s="48">
+        <v>1</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="70">
         <v>3</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="69">
         <v>78</v>
       </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47">
+      <c r="K13" s="73"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37">
         <v>3</v>
       </c>
-      <c r="N13" s="48"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="53"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="43"/>
     </row>
   </sheetData>
   <sortState ref="A2:Q11">
@@ -1974,6 +1974,7 @@
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1988,94 +1989,94 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2109,178 +2110,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="59"/>
-    </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.15">
-      <c r="A5" s="68" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="62" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
     </row>
     <row r="9" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="73"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="73"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="73"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="73"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="73"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="63"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="68" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="68"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
